--- a/variables/Renaming_variables_for_NLSY97_Responsibility_Personality_tagset.xlsx
+++ b/variables/Renaming_variables_for_NLSY97_Responsibility_Personality_tagset.xlsx
@@ -830,30 +830,9 @@
     <t>trustful</t>
   </si>
   <si>
-    <t>providejobs</t>
-  </si>
-  <si>
-    <t>controlprices</t>
-  </si>
-  <si>
     <t>healthcare</t>
   </si>
   <si>
-    <t>livingstandard</t>
-  </si>
-  <si>
-    <t>helpneedy</t>
-  </si>
-  <si>
-    <t>helpunempl</t>
-  </si>
-  <si>
-    <t>helpindustry</t>
-  </si>
-  <si>
-    <t>fundcollege</t>
-  </si>
-  <si>
     <t>conscientious</t>
   </si>
   <si>
@@ -876,6 +855,27 @@
   </si>
   <si>
     <t>T1068800</t>
+  </si>
+  <si>
+    <t>elderly</t>
+  </si>
+  <si>
+    <t>unemployed</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>inequality</t>
+  </si>
+  <si>
+    <t>jobs</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>college</t>
   </si>
 </sst>
 </file>
@@ -1380,45 +1380,48 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1427,9 +1430,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1746,14 +1746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="27" max="27" width="3.28515625" customWidth="1"/>
     <col min="28" max="28" width="24.140625" customWidth="1"/>
@@ -1776,22 +1776,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H33" si="0">MID(B2,21,40)</f>
+        <f t="shared" ref="H2:H32" si="0">MID(B2,21,40)</f>
         <v>PUBID - YTH ID CODE 1997";</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="M2:N33" si="1">MID(B2,9,8)</f>
+        <f t="shared" ref="N2:N32" si="1">MID(B2,9,8)</f>
         <v>R0000100</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O33" si="2">MID(B2,18,80)</f>
+        <f t="shared" ref="O2:O32" si="2">MID(B2,18,80)</f>
         <v>= "PUBID - YTH ID CODE 1997";</v>
       </c>
       <c r="T2" t="str">
-        <f t="shared" ref="T2:T33" si="3">CONCATENATE($U$1,M2,O2)</f>
+        <f t="shared" ref="T2:T32" si="3">CONCATENATE($U$1,M2,O2)</f>
         <v>label id= "PUBID - YTH ID CODE 1997";</v>
       </c>
       <c r="AA2" t="s">
@@ -2018,7 +2018,7 @@
         <v>R IS CONSCIENTIOUS 2002";</v>
       </c>
       <c r="M9" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
@@ -2256,7 +2256,7 @@
         <v>GOVT RESPONSIBILITY - PROVIDE JOBS 2006"</v>
       </c>
       <c r="M16" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="1"/>
@@ -2268,14 +2268,14 @@
       </c>
       <c r="T16" t="str">
         <f t="shared" si="3"/>
-        <v>label providejobs= "GOVT RESPONSIBILITY - PROVIDE JOBS 2006";</v>
+        <v>label jobs= "GOVT RESPONSIBILITY - PROVIDE JOBS 2006";</v>
       </c>
       <c r="AA16" t="s">
         <v>207</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="4"/>
-        <v>"S8646900"="providejobs",</v>
+        <v>"S8646900"="jobs",</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
         <v>GOVT RESPNSBLTY - KEEP PRICES UND CTRL 2</v>
       </c>
       <c r="M17" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="1"/>
@@ -2302,14 +2302,14 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="3"/>
-        <v>label controlprices= "GOVT RESPNSBLTY - KEEP PRICES UND CTRL 2006";</v>
+        <v>label prices= "GOVT RESPNSBLTY - KEEP PRICES UND CTRL 2006";</v>
       </c>
       <c r="AA17" t="s">
         <v>207</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="4"/>
-        <v>"S8647000"="controlprices",</v>
+        <v>"S8647000"="prices",</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>GOVT RESPNSBLTY - HLTH CARE FOR SICK 200</v>
       </c>
       <c r="M18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="1"/>
@@ -2358,7 +2358,7 @@
         <v>GOVT RESPNSBLTY -PROV ELD LIV STAND 2006</v>
       </c>
       <c r="M19" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="1"/>
@@ -2370,14 +2370,14 @@
       </c>
       <c r="T19" t="str">
         <f t="shared" si="3"/>
-        <v>label livingstandard= "GOVT RESPNSBLTY -PROV ELD LIV STAND 2006";</v>
+        <v>label elderly= "GOVT RESPNSBLTY -PROV ELD LIV STAND 2006";</v>
       </c>
       <c r="AA19" t="s">
         <v>207</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="4"/>
-        <v>"S8647200"="livingstandard",</v>
+        <v>"S8647200"="elderly",</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>GOVT RESPNSBLTY -PROV IND HELP 2006";</v>
       </c>
       <c r="M20" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="1"/>
@@ -2404,14 +2404,14 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="3"/>
-        <v>label helpneedy= "GOVT RESPNSBLTY -PROV IND HELP 2006";</v>
+        <v>label industry= "GOVT RESPNSBLTY -PROV IND HELP 2006";</v>
       </c>
       <c r="AA20" t="s">
         <v>207</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="4"/>
-        <v>"S8647300"="helpneedy",</v>
+        <v>"S8647300"="industry",</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -2426,7 +2426,7 @@
         <v>GOVT RESPNSBLTY -PROV UNEMP LIV STAND 20</v>
       </c>
       <c r="M21" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="1"/>
@@ -2438,14 +2438,14 @@
       </c>
       <c r="T21" t="str">
         <f t="shared" si="3"/>
-        <v>label helpunempl= "GOVT RESPNSBLTY -PROV UNEMP LIV STAND 2006";</v>
+        <v>label unemployed= "GOVT RESPNSBLTY -PROV UNEMP LIV STAND 2006";</v>
       </c>
       <c r="AA21" t="s">
         <v>207</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" si="4"/>
-        <v>"S8647400"="helpunempl",</v>
+        <v>"S8647400"="unemployed",</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
         <v>GOVT RESPNSBLTY -REDUCE INC DIFF 2006";</v>
       </c>
       <c r="M22" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="1"/>
@@ -2472,14 +2472,14 @@
       </c>
       <c r="T22" t="str">
         <f t="shared" si="3"/>
-        <v>label helpindustry= "GOVT RESPNSBLTY -REDUCE INC DIFF 2006";</v>
+        <v>label inequality= "GOVT RESPNSBLTY -REDUCE INC DIFF 2006";</v>
       </c>
       <c r="AA22" t="s">
         <v>207</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" si="4"/>
-        <v>"S8647500"="helpindustry",</v>
+        <v>"S8647500"="inequality",</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
         <v>GOVT RESPNSBLTY -PROV COLL FIN AID 2006"</v>
       </c>
       <c r="M23" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="1"/>
@@ -2506,14 +2506,14 @@
       </c>
       <c r="T23" t="str">
         <f t="shared" si="3"/>
-        <v>label fundcollege= "GOVT RESPNSBLTY -PROV COLL FIN AID 2006";</v>
+        <v>label college= "GOVT RESPNSBLTY -PROV COLL FIN AID 2006";</v>
       </c>
       <c r="AA23" t="s">
         <v>207</v>
       </c>
       <c r="AB23" t="str">
         <f t="shared" si="4"/>
-        <v>"S8647600"="fundcollege",</v>
+        <v>"S8647600"="college",</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>IMP OF NLSY97 IN UNDRSTNDNG YNG AM LVS 2</v>
       </c>
       <c r="M26" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="1"/>
@@ -2630,7 +2630,7 @@
         <v>PERCP IMP NLSY97 TO OTH PEOPLE 2007";</v>
       </c>
       <c r="M27" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="1"/>
@@ -2664,7 +2664,7 @@
         <v>NLSY97 - CAPTURE INFO ABOUT RS LIFE 2007</v>
       </c>
       <c r="M28" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="1"/>
@@ -2698,7 +2698,7 @@
         <v>PEOPLE NEED TO LOOK AFTER THEMSELVES 200</v>
       </c>
       <c r="M29" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="1"/>
@@ -2732,7 +2732,7 @@
         <v>PEOPLE SHOULD TAKE CARE OF THEMSELVES 20</v>
       </c>
       <c r="M30" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="1"/>
@@ -2766,7 +2766,7 @@
         <v>HELPING PEOPLE IS IMPORTANT TO R 2007";</v>
       </c>
       <c r="M31" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="1"/>
@@ -2800,7 +2800,7 @@
         <v>PEOPLE SHOULD HELP LESS FORTUNATE 2007";</v>
       </c>
       <c r="M32" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="1"/>
@@ -3459,26 +3459,26 @@
       <c r="E2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="3:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -4181,88 +4181,88 @@
       <c r="C22" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
     </row>
     <row r="26" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
@@ -4286,154 +4286,154 @@
       <c r="C27" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
       <c r="R27" s="20"/>
     </row>
     <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
       <c r="R28" s="21"/>
     </row>
     <row r="29" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
       <c r="R29" s="21"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
       <c r="R30" s="21"/>
     </row>
     <row r="31" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
       <c r="R31" s="21"/>
     </row>
     <row r="32" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
       <c r="R32" s="21"/>
     </row>
     <row r="33" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
       <c r="R33" s="2" t="s">
         <v>178</v>
       </c>
@@ -4442,22 +4442,22 @@
       <c r="C34" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="80" t="s">
+      <c r="D34" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
       <c r="R34" s="2" t="s">
         <v>178</v>
       </c>
@@ -4485,92 +4485,97 @@
       </c>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D37:R37"/>
+    <mergeCell ref="D38:R38"/>
+    <mergeCell ref="D39:R39"/>
+    <mergeCell ref="D40:R40"/>
+    <mergeCell ref="D41:R41"/>
     <mergeCell ref="D34:Q34"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
@@ -4587,11 +4592,6 @@
     <mergeCell ref="D23:Q23"/>
     <mergeCell ref="D24:Q24"/>
     <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D37:R37"/>
-    <mergeCell ref="D38:R38"/>
-    <mergeCell ref="D39:R39"/>
-    <mergeCell ref="D40:R40"/>
-    <mergeCell ref="D41:R41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4629,20 +4629,20 @@
       <c r="D2" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="94" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="92" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
     </row>
     <row r="3" spans="3:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -5134,17 +5134,17 @@
       <c r="C20" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
     </row>
     <row r="21" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -5208,17 +5208,17 @@
       <c r="C25" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
     </row>
     <row r="26" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
@@ -5250,17 +5250,17 @@
       <c r="C28" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
     </row>
     <row r="29" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="62" t="s">
@@ -5308,47 +5308,51 @@
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="D37:I37"/>
     <mergeCell ref="D19:I19"/>
@@ -5365,10 +5369,6 @@
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="D28:L28"/>
     <mergeCell ref="D30:L30"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5403,20 +5403,20 @@
       <c r="D2" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="94" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="92" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
     </row>
     <row r="3" spans="2:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -5844,17 +5844,17 @@
       <c r="C18" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
     </row>
     <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="76" t="s">
@@ -5908,17 +5908,17 @@
       <c r="C22" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
     </row>
     <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="76" t="s">
@@ -5940,17 +5940,17 @@
       <c r="C24" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
     </row>
     <row r="25" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="64" t="s">
@@ -5998,57 +5998,47 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
     <mergeCell ref="D32:I32"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D24:L24"/>
@@ -6057,6 +6047,16 @@
     <mergeCell ref="D29:I29"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
